--- a/BOTs G ID's & Developer Password Details.xlsx
+++ b/BOTs G ID's & Developer Password Details.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="705" windowWidth="19635" windowHeight="7170" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="705" windowWidth="19635" windowHeight="7170" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BOT ID's" sheetId="1" r:id="rId1"/>
     <sheet name="Developers" sheetId="2" r:id="rId2"/>
-    <sheet name="Resources &amp; GIDs for Prod Envir" sheetId="3" r:id="rId3"/>
+    <sheet name="VM Resources" sheetId="3" r:id="rId3"/>
     <sheet name="App Links" sheetId="4" r:id="rId4"/>
     <sheet name="DB Detail" sheetId="5" r:id="rId5"/>
     <sheet name="Queries_log" sheetId="6" r:id="rId6"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
   <si>
     <t>S No</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Resource</t>
   </si>
   <si>
-    <t>Resources and GID's of Resources and NAT IP's</t>
-  </si>
-  <si>
     <t>G ID</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>MSS DB</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>SODA DB</t>
   </si>
   <si>
@@ -402,9 +396,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Live Connection, But this is not recommended for BOTs usage</t>
-  </si>
-  <si>
     <t>msl00p41.windstream.com</t>
   </si>
   <si>
@@ -439,13 +430,147 @@
   </si>
   <si>
     <t>It is not returning the updated data. It seems like data are 1 years behind.</t>
+  </si>
+  <si>
+    <t>Resources, GID's and NAT IP's</t>
+  </si>
+  <si>
+    <t>CWWAPP1387D</t>
+  </si>
+  <si>
+    <t>CWWAPP1388D</t>
+  </si>
+  <si>
+    <t>CWWAPP1389D</t>
+  </si>
+  <si>
+    <t>CWWAPP1390D</t>
+  </si>
+  <si>
+    <t>71.29.164.239</t>
+  </si>
+  <si>
+    <t>71.29.164.240</t>
+  </si>
+  <si>
+    <t>71.29.164.247</t>
+  </si>
+  <si>
+    <t>Actual IP</t>
+  </si>
+  <si>
+    <t>10.104.165.63</t>
+  </si>
+  <si>
+    <t>10.104.165.64</t>
+  </si>
+  <si>
+    <t>10.104.165.65</t>
+  </si>
+  <si>
+    <t>10.104.165.66</t>
+  </si>
+  <si>
+    <r>
+      <t>71.29.164.253</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Applications </t>
+  </si>
+  <si>
+    <t>Chronos</t>
+  </si>
+  <si>
+    <t>ASOC Lookup</t>
+  </si>
+  <si>
+    <t>MSS Local Copy</t>
+  </si>
+  <si>
+    <t>Citrix MSS</t>
+  </si>
+  <si>
+    <t>Links / Paths</t>
+  </si>
+  <si>
+    <t>Yes - msl00p40</t>
+  </si>
+  <si>
+    <t>M6 Ticket</t>
+  </si>
+  <si>
+    <t>Order Corrections</t>
+  </si>
+  <si>
+    <t>http://cwwapp400.windstream.com/LoginIE/index.php</t>
+  </si>
+  <si>
+    <t>ASAG</t>
+  </si>
+  <si>
+    <t>http://asag.windstream.com/asag/</t>
+  </si>
+  <si>
+    <t>http://ccb.windstream.com/</t>
+  </si>
+  <si>
+    <t>C:\Program Files (x86)\Ericom Software\PowerTerm Pro Enterprise\ptpro.exe</t>
+  </si>
+  <si>
+    <t>C:\MSS\Live\tbs.exe</t>
+  </si>
+  <si>
+    <t>http://asag.windstream.com/apps/M6Issues/login/Autotest.asp</t>
+  </si>
+  <si>
+    <t>http://cstar.windstream.com/cstar/oc</t>
+  </si>
+  <si>
+    <t>http://crc.windstream.com/bpt</t>
+  </si>
+  <si>
+    <t>http://asag.windstream.com/apps/racksheets/LogIn/login.asp</t>
+  </si>
+  <si>
+    <t>BPQ</t>
+  </si>
+  <si>
+    <t>http://ccb.windstream.com/DSLQ/DataEntry.aspx</t>
+  </si>
+  <si>
+    <t>http://cwwapp332.windstream.com:8080/BOE/BI</t>
+  </si>
+  <si>
+    <t>Business Objects</t>
+  </si>
+  <si>
+    <t>https://winapps.windstream.com/Citrix/ExtWeb/</t>
+  </si>
+  <si>
+    <t>CWWDBS050D</t>
+  </si>
+  <si>
+    <t>Live Connection, But this is not recommended for BOTs usage.
+Agan there is an confusion going around MSS DB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,8 +680,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +740,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,7 +798,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -714,6 +860,22 @@
     <xf numFmtId="22" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1015,7 +1177,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.5703125" defaultRowHeight="15"/>
@@ -1088,7 +1250,7 @@
         <v>35</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1137,9 +1299,11 @@
       <c r="O2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="11"/>
+      <c r="P2" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q2" s="11" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1189,7 +1353,9 @@
       <c r="O3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="11"/>
+      <c r="P3" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17">
@@ -1239,7 +1405,9 @@
       <c r="O4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="11"/>
+      <c r="P4" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17">
@@ -1289,7 +1457,9 @@
       <c r="O5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17">
@@ -1339,7 +1509,9 @@
       <c r="O6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17">
@@ -1389,7 +1561,9 @@
       <c r="O7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="11"/>
+      <c r="P7" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17">
@@ -1439,7 +1613,9 @@
       <c r="O8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="11"/>
+      <c r="P8" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17">
@@ -1489,7 +1665,9 @@
       <c r="O9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="11"/>
+      <c r="P9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17">
@@ -1539,7 +1717,9 @@
       <c r="O10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="11"/>
+      <c r="P10" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17">
@@ -1589,7 +1769,9 @@
       <c r="O11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="11"/>
+      <c r="P11" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17">
@@ -1639,7 +1821,9 @@
       <c r="O12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="11"/>
+      <c r="P12" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17">
@@ -1689,7 +1873,9 @@
       <c r="O13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P13" s="11"/>
+      <c r="P13" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17">
@@ -1739,7 +1925,9 @@
       <c r="O14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P14" s="11"/>
+      <c r="P14" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17">
@@ -1789,7 +1977,9 @@
       <c r="O15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="11"/>
+      <c r="P15" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17">
@@ -1839,7 +2029,9 @@
       <c r="O16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17">
@@ -1889,7 +2081,9 @@
       <c r="O17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="11"/>
+      <c r="P17" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="Q17" s="9"/>
     </row>
   </sheetData>
@@ -1901,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="15"/>
@@ -2163,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2175,25 +2369,26 @@
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="F1" s="23" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2202,8 +2397,9 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -2211,7 +2407,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>93</v>
@@ -2223,13 +2419,16 @@
         <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2240,20 +2439,25 @@
         <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="8">
         <f>A4+1</f>
         <v>2</v>
@@ -2265,21 +2469,26 @@
         <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="8">
         <f>F4+1</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="8">
         <f t="shared" ref="A6" si="0">A5+1</f>
         <v>3</v>
@@ -2291,32 +2500,46 @@
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6" si="1">F5+1</f>
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="F7" s="8">
         <v>4</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="F1:I2"/>
+    <mergeCell ref="F1:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2325,30 +2548,186 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="106.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="10" spans="4:4">
-      <c r="D10" t="s">
-        <v>99</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15"/>
@@ -2363,34 +2742,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="H1" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
@@ -2398,24 +2777,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="J2" s="16"/>
     </row>
@@ -2424,75 +2803,71 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="16"/>
+        <v>115</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>175</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1521</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>124</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>111</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="30">
       <c r="A5" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>128</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E5" s="16">
         <v>1521</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>129</v>
+      <c r="F5" s="18" t="s">
+        <v>122</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>37</v>
@@ -2501,131 +2876,175 @@
         <v>17</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="E6" s="16">
+        <v>1521</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2636,8 +3055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2651,22 +3070,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="180">
@@ -2674,19 +3093,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D2" s="22">
         <v>43215.938888888886</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/BOTs G ID's & Developer Password Details.xlsx
+++ b/BOTs G ID's & Developer Password Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="705" windowWidth="19635" windowHeight="7170" activeTab="5"/>
+    <workbookView xWindow="720" yWindow="705" windowWidth="19635" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="BOT ID's" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="179">
   <si>
     <t>S No</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>PALANI1</t>
-  </si>
-  <si>
-    <t>Today0326</t>
   </si>
   <si>
     <t>reddy123</t>
@@ -564,6 +561,15 @@
   <si>
     <t>Live Connection, But this is not recommended for BOTs usage.
 Agan there is an confusion going around MSS DB</t>
+  </si>
+  <si>
+    <t>Today321</t>
+  </si>
+  <si>
+    <t>Today124</t>
+  </si>
+  <si>
+    <t>Today741</t>
   </si>
 </sst>
 </file>
@@ -696,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +752,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,9 +846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,9 +867,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,6 +881,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.5703125" defaultRowHeight="15"/>
@@ -1213,13 +1225,13 @@
       <c r="D1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="29" t="s">
         <v>29</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -1228,29 +1240,29 @@
       <c r="I1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="29" t="s">
         <v>35</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1264,16 +1276,16 @@
         <v>37</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>17</v>
@@ -1282,28 +1294,28 @@
         <v>17</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1318,16 +1330,16 @@
         <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>17</v>
@@ -1336,25 +1348,25 @@
         <v>17</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q3" s="9"/>
     </row>
@@ -1370,16 +1382,16 @@
         <v>41</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>17</v>
@@ -1388,25 +1400,25 @@
         <v>17</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="9"/>
     </row>
@@ -1422,16 +1434,16 @@
         <v>43</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>17</v>
@@ -1440,25 +1452,25 @@
         <v>17</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="9"/>
     </row>
@@ -1474,16 +1486,16 @@
         <v>45</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>17</v>
@@ -1492,25 +1504,25 @@
         <v>17</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="9"/>
     </row>
@@ -1526,16 +1538,16 @@
         <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>17</v>
@@ -1544,25 +1556,25 @@
         <v>17</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="9"/>
     </row>
@@ -1578,16 +1590,16 @@
         <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>17</v>
@@ -1596,25 +1608,25 @@
         <v>17</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="9"/>
     </row>
@@ -1630,16 +1642,16 @@
         <v>51</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>17</v>
@@ -1648,25 +1660,25 @@
         <v>17</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q9" s="9"/>
     </row>
@@ -1682,16 +1694,16 @@
         <v>53</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>17</v>
@@ -1700,25 +1712,25 @@
         <v>17</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="9"/>
     </row>
@@ -1734,16 +1746,16 @@
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>17</v>
@@ -1752,25 +1764,25 @@
         <v>17</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="9"/>
     </row>
@@ -1786,16 +1798,16 @@
         <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>17</v>
@@ -1804,25 +1816,25 @@
         <v>17</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="9"/>
     </row>
@@ -1838,16 +1850,16 @@
         <v>59</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>17</v>
@@ -1856,25 +1868,25 @@
         <v>17</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="9"/>
     </row>
@@ -1890,16 +1902,16 @@
         <v>61</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>17</v>
@@ -1908,25 +1920,25 @@
         <v>17</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="9"/>
     </row>
@@ -1942,16 +1954,16 @@
         <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>17</v>
@@ -1960,25 +1972,25 @@
         <v>17</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="9"/>
     </row>
@@ -1994,16 +2006,16 @@
         <v>65</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>17</v>
@@ -2012,25 +2024,25 @@
         <v>17</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q16" s="9"/>
     </row>
@@ -2046,16 +2058,16 @@
         <v>67</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>17</v>
@@ -2064,25 +2076,25 @@
         <v>17</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>17</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="9"/>
     </row>
@@ -2096,7 +2108,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="15"/>
@@ -2180,34 +2192,34 @@
         <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
@@ -2229,10 +2241,8 @@
       <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -2277,10 +2287,10 @@
         <v>17</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>17</v>
@@ -2289,19 +2299,19 @@
         <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75">
@@ -2318,33 +2328,33 @@
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2374,30 +2384,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="F1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="A1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
@@ -2407,10 +2417,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>26</v>
@@ -2419,13 +2429,13 @@
         <v>27</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2439,22 +2449,22 @@
         <v>37</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>138</v>
+        <v>117</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2469,23 +2479,23 @@
         <v>39</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="8">
         <f>F4+1</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>139</v>
+        <v>117</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2500,23 +2510,23 @@
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6" si="1">F5+1</f>
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>140</v>
+        <v>117</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2524,16 +2534,16 @@
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>141</v>
+      <c r="J7" s="22" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2561,14 +2571,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>156</v>
+      <c r="A1" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2576,10 +2586,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2587,10 +2597,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2598,10 +2608,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2611,8 +2621,8 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>163</v>
+      <c r="C5" s="24" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2623,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2631,10 +2641,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2642,10 +2652,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2656,7 +2666,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2664,10 +2674,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2678,7 +2688,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2686,10 +2696,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2697,10 +2707,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2708,10 +2718,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2741,310 +2751,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="D5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1521</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="G5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="16">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="16">
+      <c r="E6" s="15">
         <v>1521</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F6" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1521</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="J6" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3055,7 +3065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -3069,43 +3079,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="180">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="21">
+        <v>43215.938888888886</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="22">
-        <v>43215.938888888886</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/BOTs G ID's & Developer Password Details.xlsx
+++ b/BOTs G ID's & Developer Password Details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="705" windowWidth="19635" windowHeight="7170"/>
+    <workbookView xWindow="720" yWindow="705" windowWidth="19635" windowHeight="7170" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOT ID's" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="VM Resources" sheetId="3" r:id="rId3"/>
     <sheet name="App Links" sheetId="4" r:id="rId4"/>
     <sheet name="DB Detail" sheetId="5" r:id="rId5"/>
-    <sheet name="Queries_log" sheetId="6" r:id="rId6"/>
+    <sheet name="Issue Tracker" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="175">
   <si>
     <t>S No</t>
   </si>
@@ -75,9 +76,6 @@
     <t>Today123</t>
   </si>
   <si>
-    <t>Today@123</t>
-  </si>
-  <si>
     <t>Vignesh Shanker</t>
   </si>
   <si>
@@ -400,33 +398,6 @@
   </si>
   <si>
     <t>Backup database, For the usage of BOTs Production</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Date Provided</t>
-  </si>
-  <si>
-    <t>Current Status</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>SELECT document_number, exchange_carrier_circuit_id, customer_name, provisioning_order, ISP, new_SPEED, old_speed, new_MODEM, old_modem, task, TASK_EXCEPTN FROM (SELECT rank() over(partition BY c.exchange_carrier_circuit_id order by sr.document_number DESC ) rnk, c.exchange_carrier_circuit_id, sr.document_number, NVL(cust.company_name,cust.nm_title_abbrev ||cust.first_nm ||cust.middle_initial ||cust.last_nm) customer_name, psr.provisioning_order, ( SELECT srs1.item_alias FROM serv_req_si srs1, MSSINT.MV_NSPS mnn WHERE srs1.document_number = sr.document_number AND srs1.spec_grp_id = mnn.nsp_id AND srs1.activity_cd IN ('N','I') ) ISP, (SELECT srs1.item_alias FROM serv_req_si srs1, MSSINT.MV_PRODUCTS mp WHERE srs1.document_number = sr.document_number AND srs1.spec_grp_id = mp.product_id AND srs1.activity_cd IN ('N','I') ) New_SPEED, (SELECT srs1.item_alias FROM serv_req_si srs1, MSSINT.MV_PRODUCTS mp WHERE srs1.document_number = sr.document_number AND srs1.spec_grp_id = mp.product_id AND srs1.activity_cd IN ('D') ) old_SPEED, (SELECT srs1.item_alias FROM serv_req_si srs1, MSSINT.MV_CPES mc WHERE srs1.document_number = sr.document_number AND srs1.spec_grp_id = MC.CPE_ID AND srs1.activity_cd IN ('N','I') ) new_Modem, (SELECT srs1.item_alias FROM serv_req_si srs1, MSSINT.MV_CPES mc WHERE srs1.document_number = sr.document_number AND srs1.spec_grp_id = MC.CPE_ID AND srs1.activity_cd IN ('D') ) old_Modem, NVL( (SELECT t.task_type FROM task t, serv_req sr2 WHERE t.task_status ='Ready' AND sr2.document_number = sr.document_number AND sr2.document_number = t.document_number AND SR.SERVICE_REQUEST_STATUS = '801' ),'NA') TASK, NVL( (SELECT GEE.GATEWAY_EVENT_ERR_MSG FROM GATEWAY_EVENT_ERROR GEE, TASK T WHERE GEE.DOCUMENT_NUMBER_SRGE = sr.document_number AND GEE.TASK_NUMBER_SRGE = T.TASK_NUMBER AND T.DOCUMENT_NUMBER = GEE.document_number_SRGE AND T.WORK_QUEUE_ID = 'EXCEPTN' ),'NA') TASK_EXCEPTN FROM circuit c, service_request_circuit src, serv_req sr, psr_user_data psr, cust_acct cust WHERE cust.cust_acct_id = sr.cust_acct_id AND sr.document_number = psr.document_number AND src.document_number = sr.document_number AND c.circuit_design_id = src.circuit_design_id AND c.exchange_carrier_circuit_id IN ('386-496-0787-0', '740-745-5426-0', '440-543-6780-0', '606-439-3215-0', '501-796-4681-0', '706-797-3243-0') ) WHERE rnk=1;</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karpagaraj D </t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>It is not returning the updated data. It seems like data are 1 years behind.</t>
   </si>
   <si>
     <t>Resources, GID's and NAT IP's</t>
@@ -502,9 +473,6 @@
     <t>Links / Paths</t>
   </si>
   <si>
-    <t>Yes - msl00p40</t>
-  </si>
-  <si>
     <t>M6 Ticket</t>
   </si>
   <si>
@@ -570,6 +538,27 @@
   </si>
   <si>
     <t>Today741</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>PLMOD Fails to Load (I06254 3987 333)</t>
+  </si>
+  <si>
+    <t>20!8Summer</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Last Password</t>
+  </si>
+  <si>
+    <t>Today555</t>
   </si>
 </sst>
 </file>
@@ -587,13 +576,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -681,12 +663,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
@@ -701,8 +677,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,11 +701,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -801,79 +785,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -883,17 +857,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1186,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.5703125" defaultRowHeight="15"/>
@@ -1197,906 +1180,882 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:16" ht="30">
       <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>76</v>
+      <c r="D3" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>77</v>
+      <c r="D4" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>78</v>
+      <c r="D5" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F5" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F9" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F15" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F16" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q17" s="9"/>
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.7109375" defaultRowHeight="15"/>
@@ -2142,7 +2101,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -2182,44 +2141,44 @@
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75">
@@ -2227,44 +2186,46 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75">
@@ -2272,46 +2233,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15.75">
@@ -2319,49 +2280,55 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId1" display="Today@123"/>
+    <hyperlink ref="K3" r:id="rId2" display="Today@123"/>
+    <hyperlink ref="L3" r:id="rId3" display="Today@123"/>
+    <hyperlink ref="M3" r:id="rId4" display="Today@123"/>
+    <hyperlink ref="N3" r:id="rId5" display="Today@123"/>
+    <hyperlink ref="O3" r:id="rId6" display="Today@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2370,7 +2337,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2385,13 +2352,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="F1" s="28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
@@ -2411,31 +2378,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2443,28 +2410,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>137</v>
+        <v>116</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2473,29 +2440,29 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="8">
         <f>F4+1</f>
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>138</v>
+        <v>116</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2504,29 +2471,29 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" ref="F6" si="1">F5+1</f>
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>139</v>
+        <v>116</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2534,16 +2501,16 @@
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>140</v>
+        <v>116</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2561,7 +2528,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2571,14 +2538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>155</v>
+      <c r="A1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2586,10 +2553,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>159</v>
+        <v>141</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2597,10 +2564,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2608,10 +2575,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>97</v>
+        <v>142</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2621,8 +2588,8 @@
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>162</v>
+      <c r="C5" s="19" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2633,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2641,10 +2608,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2652,10 +2619,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>173</v>
+        <v>144</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2665,8 +2632,8 @@
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>168</v>
+      <c r="C9" s="19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2674,10 +2641,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2685,10 +2652,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>167</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2696,10 +2663,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>166</v>
+        <v>147</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2707,10 +2674,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2718,15 +2685,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2736,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15"/>
@@ -2751,310 +2728,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" ht="30">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="D5" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1521</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="G5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="15">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="15">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="E6" s="13">
         <v>1521</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F6" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="15">
-        <v>1521</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="J6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3063,180 +3040,231 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="101" customWidth="1"/>
-    <col min="3" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="77.7109375" customWidth="1"/>
+    <col min="2" max="2" width="82" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="180">
-      <c r="A2" s="9">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="21">
-        <v>43215.938888888886</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
